--- a/raw_data/20200818_saline/20200818_Sensor3_Test_63.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_63.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6737F-18C7-4D0E-AA8F-951C95AEDC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>56358.394653</v>
+        <v>56358.394653000003</v>
       </c>
       <c r="B2" s="1">
-        <v>15.655110</v>
+        <v>15.655110000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1146.050000</v>
+        <v>1146.05</v>
       </c>
       <c r="D2" s="1">
-        <v>-230.739000</v>
+        <v>-230.739</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>56368.470405</v>
       </c>
       <c r="G2" s="1">
-        <v>15.657908</v>
+        <v>15.657908000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.880000</v>
+        <v>1163.8800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-195.771000</v>
+        <v>-195.77099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>56378.904741</v>
+        <v>56378.904740999998</v>
       </c>
       <c r="L2" s="1">
         <v>15.660807</v>
       </c>
       <c r="M2" s="1">
-        <v>1189.700000</v>
+        <v>1189.7</v>
       </c>
       <c r="N2" s="1">
-        <v>-140.577000</v>
+        <v>-140.577</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>56389.426839</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.663730</v>
+        <v>15.663729999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-121.861000</v>
+        <v>-121.861</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>56400.031306</v>
+        <v>56400.031305999997</v>
       </c>
       <c r="V2" s="1">
         <v>15.666675</v>
       </c>
       <c r="W2" s="1">
-        <v>1206.240000</v>
+        <v>1206.24</v>
       </c>
       <c r="X2" s="1">
-        <v>-103.934000</v>
+        <v>-103.934</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>56410.474085</v>
+        <v>56410.474085000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.669576</v>
+        <v>15.669575999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.110300</v>
+        <v>-89.110299999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>56421.061218</v>
+        <v>56421.061218000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.672517</v>
+        <v>15.672516999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1220.370000</v>
+        <v>1220.3699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.552600</v>
+        <v>-85.552599999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>56431.520319</v>
+        <v>56431.520319000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.675422</v>
+        <v>15.675421999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1228.080000</v>
+        <v>1228.08</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.723100</v>
+        <v>-89.723100000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>56442.414981</v>
+        <v>56442.414981000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.678449</v>
+        <v>15.678449000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1236.390000</v>
+        <v>1236.3900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.224000</v>
+        <v>-102.224</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>56453.351234</v>
+        <v>56453.351234000002</v>
       </c>
       <c r="AU2" s="1">
         <v>15.681486</v>
       </c>
       <c r="AV2" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-122.020000</v>
+        <v>-122.02</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>56464.483941</v>
+        <v>56464.483940999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.684579</v>
+        <v>15.684578999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.848000</v>
+        <v>-139.84800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>56475.451013</v>
+        <v>56475.451012999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.687625</v>
+        <v>15.687625000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.430000</v>
+        <v>1296.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.871000</v>
+        <v>-222.87100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>56486.737953</v>
+        <v>56486.737953000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>15.690761</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.385000</v>
+        <v>-360.38499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>56498.570006</v>
+        <v>56498.570006000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.694047</v>
+        <v>15.694046999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.320000</v>
+        <v>-583.32000000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>56508.621962</v>
+        <v>56508.621961999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.696839</v>
+        <v>15.696839000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1618.370000</v>
+        <v>1618.37</v>
       </c>
       <c r="BV2" s="1">
-        <v>-834.552000</v>
+        <v>-834.55200000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>56519.346442</v>
+        <v>56519.346442000002</v>
       </c>
       <c r="BY2" s="1">
         <v>15.699818</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1773.180000</v>
+        <v>1773.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1106.020000</v>
+        <v>-1106.02</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>56530.315452</v>
+        <v>56530.315452000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.702865</v>
+        <v>15.702864999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2196.320000</v>
+        <v>2196.3200000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1761.380000</v>
+        <v>-1761.38</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>56358.766175</v>
+        <v>56358.766174999997</v>
       </c>
       <c r="B3" s="1">
         <v>15.655213</v>
       </c>
       <c r="C3" s="1">
-        <v>1146.130000</v>
+        <v>1146.1300000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-230.838000</v>
+        <v>-230.83799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>56368.891510</v>
+        <v>56368.891510000001</v>
       </c>
       <c r="G3" s="1">
         <v>15.658025</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.680000</v>
+        <v>1164.68</v>
       </c>
       <c r="I3" s="1">
-        <v>-196.393000</v>
+        <v>-196.393</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>56379.316389</v>
@@ -768,73 +1184,73 @@
         <v>15.660921</v>
       </c>
       <c r="M3" s="1">
-        <v>1189.670000</v>
+        <v>1189.67</v>
       </c>
       <c r="N3" s="1">
-        <v>-140.428000</v>
+        <v>-140.428</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>56389.832070</v>
+        <v>56389.832069999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.663842</v>
+        <v>15.663842000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.150000</v>
+        <v>1198.1500000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-121.894000</v>
+        <v>-121.89400000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>56400.402346</v>
+        <v>56400.402346000003</v>
       </c>
       <c r="V3" s="1">
-        <v>15.666778</v>
+        <v>15.666778000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1206.320000</v>
+        <v>1206.32</v>
       </c>
       <c r="X3" s="1">
-        <v>-103.862000</v>
+        <v>-103.86199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>56410.860954</v>
+        <v>56410.860954000003</v>
       </c>
       <c r="AA3" s="1">
         <v>15.669684</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.080000</v>
+        <v>1215.08</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.038500</v>
+        <v>-89.038499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>56421.437646</v>
+        <v>56421.437645999998</v>
       </c>
       <c r="AF3" s="1">
         <v>15.672622</v>
       </c>
       <c r="AG3" s="1">
-        <v>1220.270000</v>
+        <v>1220.27</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.555300</v>
+        <v>-85.555300000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>56432.256382</v>
@@ -843,255 +1259,255 @@
         <v>15.675627</v>
       </c>
       <c r="AL3" s="1">
-        <v>1228.070000</v>
+        <v>1228.07</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.721400</v>
+        <v>-89.721400000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>56442.818192</v>
+        <v>56442.818191999999</v>
       </c>
       <c r="AP3" s="1">
         <v>15.678561</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>56453.756465</v>
+        <v>56453.756464999999</v>
       </c>
       <c r="AU3" s="1">
         <v>15.681599</v>
       </c>
       <c r="AV3" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-122.034000</v>
+        <v>-122.03400000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>56464.845523</v>
+        <v>56464.845523000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.684679</v>
+        <v>15.684678999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1255.310000</v>
+        <v>1255.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.840000</v>
+        <v>-139.84</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>56476.133008</v>
+        <v>56476.133007999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.687815</v>
+        <v>15.687815000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.460000</v>
+        <v>1296.46</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.901000</v>
+        <v>-222.90100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>56487.460148</v>
+        <v>56487.460147999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.690961</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.355000</v>
+        <v>-360.35500000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>56498.684582</v>
+        <v>56498.684582000002</v>
       </c>
       <c r="BO3" s="1">
         <v>15.694079</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-583.344000</v>
+        <v>-583.34400000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>56509.065352</v>
+        <v>56509.065351999998</v>
       </c>
       <c r="BT3" s="1">
         <v>15.696963</v>
       </c>
       <c r="BU3" s="1">
-        <v>1618.430000</v>
+        <v>1618.43</v>
       </c>
       <c r="BV3" s="1">
-        <v>-834.629000</v>
+        <v>-834.62900000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>56519.834523</v>
+        <v>56519.834522999998</v>
       </c>
       <c r="BY3" s="1">
         <v>15.699954</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1773.250000</v>
+        <v>1773.25</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1106.150000</v>
+        <v>-1106.1500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>56530.881916</v>
+        <v>56530.881915999998</v>
       </c>
       <c r="CD3" s="1">
         <v>15.703023</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.180000</v>
+        <v>2196.1799999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1761.900000</v>
+        <v>-1761.9</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>56359.183316</v>
+        <v>56359.183316000002</v>
       </c>
       <c r="B4" s="1">
         <v>15.655329</v>
       </c>
       <c r="C4" s="1">
-        <v>1146.100000</v>
+        <v>1146.0999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-230.761000</v>
+        <v>-230.761</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>56369.198993</v>
+        <v>56369.198992999998</v>
       </c>
       <c r="G4" s="1">
         <v>15.658111</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.930000</v>
+        <v>1163.93</v>
       </c>
       <c r="I4" s="1">
-        <v>-196.040000</v>
+        <v>-196.04</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56379.662099</v>
+        <v>56379.662099000001</v>
       </c>
       <c r="L4" s="1">
-        <v>15.661017</v>
+        <v>15.661016999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1189.650000</v>
+        <v>1189.6500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-140.505000</v>
+        <v>-140.505</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>56390.179270</v>
+        <v>56390.179270000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.663939</v>
+        <v>15.663938999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.100000</v>
+        <v>1198.0999999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-121.921000</v>
+        <v>-121.92100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>56400.748519</v>
+        <v>56400.748519000001</v>
       </c>
       <c r="V4" s="1">
-        <v>15.666875</v>
+        <v>15.666874999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1206.290000</v>
+        <v>1206.29</v>
       </c>
       <c r="X4" s="1">
-        <v>-103.844000</v>
+        <v>-103.84399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>56411.555392</v>
+        <v>56411.555392000002</v>
       </c>
       <c r="AA4" s="1">
         <v>15.669876</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.145800</v>
+        <v>-89.145799999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>56422.123613</v>
+        <v>56422.123613000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.672812</v>
       </c>
       <c r="AG4" s="1">
-        <v>1220.360000</v>
+        <v>1220.3599999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.621900</v>
+        <v>-85.621899999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>56432.600607</v>
@@ -1100,13 +1516,13 @@
         <v>15.675722</v>
       </c>
       <c r="AL4" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.741800</v>
+        <v>-89.741799999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>56443.205103</v>
@@ -1115,43 +1531,43 @@
         <v>15.678668</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1236.390000</v>
+        <v>1236.3900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.213000</v>
+        <v>-102.21299999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>56454.121025</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.681700</v>
+        <v>15.681699999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-122.079000</v>
+        <v>-122.07899999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>56465.519090</v>
+        <v>56465.519090000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>15.684866</v>
       </c>
       <c r="BA4" s="1">
-        <v>1255.300000</v>
+        <v>1255.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.845000</v>
+        <v>-139.845</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>56476.538708</v>
@@ -1160,150 +1576,150 @@
         <v>15.687927</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.897000</v>
+        <v>-222.89699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>56487.923381</v>
+        <v>56487.923381000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.691090</v>
+        <v>15.691090000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.690000</v>
+        <v>1367.69</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.387000</v>
+        <v>-360.387</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>56499.111178</v>
+        <v>56499.111177999999</v>
       </c>
       <c r="BO4" s="1">
         <v>15.694198</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.370000</v>
+        <v>1484.37</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.267000</v>
+        <v>-583.26700000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>56509.499384</v>
+        <v>56509.499384000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>15.697083</v>
+        <v>15.697082999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.440000</v>
+        <v>1618.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-834.553000</v>
+        <v>-834.553</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>56520.282875</v>
+        <v>56520.282874999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.700079</v>
+        <v>15.700079000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1773.370000</v>
+        <v>1773.37</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1106.090000</v>
+        <v>-1106.0899999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>56531.399212</v>
+        <v>56531.399211999997</v>
       </c>
       <c r="CD4" s="1">
         <v>15.703166</v>
       </c>
       <c r="CE4" s="1">
-        <v>2195.060000</v>
+        <v>2195.06</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1763.150000</v>
+        <v>-1763.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>56359.481870</v>
+        <v>56359.481870000003</v>
       </c>
       <c r="B5" s="1">
         <v>15.655412</v>
       </c>
       <c r="C5" s="1">
-        <v>1146.000000</v>
+        <v>1146</v>
       </c>
       <c r="D5" s="1">
-        <v>-230.835000</v>
+        <v>-230.83500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>56369.539248</v>
+        <v>56369.539248000001</v>
       </c>
       <c r="G5" s="1">
-        <v>15.658205</v>
+        <v>15.658205000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1164.500000</v>
+        <v>1164.5</v>
       </c>
       <c r="I5" s="1">
-        <v>-196.553000</v>
+        <v>-196.553</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>56380.007317</v>
+        <v>56380.007317000003</v>
       </c>
       <c r="L5" s="1">
         <v>15.661113</v>
       </c>
       <c r="M5" s="1">
-        <v>1189.830000</v>
+        <v>1189.83</v>
       </c>
       <c r="N5" s="1">
-        <v>-140.849000</v>
+        <v>-140.84899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>56390.529464</v>
+        <v>56390.529463999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.664036</v>
+        <v>15.664035999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="S5" s="1">
-        <v>-121.957000</v>
+        <v>-121.95699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>56401.429031</v>
@@ -1312,13 +1728,13 @@
         <v>15.667064</v>
       </c>
       <c r="W5" s="1">
-        <v>1206.280000</v>
+        <v>1206.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.002000</v>
+        <v>-104.002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>56411.905067</v>
@@ -1327,43 +1743,43 @@
         <v>15.669974</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.070400</v>
+        <v>-89.070400000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>56422.472301</v>
+        <v>56422.472301000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.672909</v>
+        <v>15.672909000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1220.420000</v>
+        <v>1220.42</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.514200</v>
+        <v>-85.514200000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56432.952583</v>
+        <v>56432.952582999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.675820</v>
+        <v>15.67582</v>
       </c>
       <c r="AL5" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.732400</v>
+        <v>-89.732399999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>56443.882607</v>
@@ -1372,270 +1788,270 @@
         <v>15.678856</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.205000</v>
+        <v>-102.205</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>56454.798064</v>
+        <v>56454.798064000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.681888</v>
+        <v>15.681888000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-122.052000</v>
+        <v>-122.05200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>56465.941186</v>
+        <v>56465.941185999996</v>
       </c>
       <c r="AZ5" s="1">
         <v>15.684984</v>
       </c>
       <c r="BA5" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.849000</v>
+        <v>-139.84899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>56476.917689</v>
+        <v>56476.917689000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.688033</v>
+        <v>15.688033000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.926000</v>
+        <v>-222.92599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>56488.309269</v>
+        <v>56488.309268999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.691197</v>
+        <v>15.691197000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.401000</v>
+        <v>-360.40100000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>56499.508439</v>
+        <v>56499.508438999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.694308</v>
+        <v>15.694307999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.296000</v>
+        <v>-583.29600000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>56509.928443</v>
+        <v>56509.928442999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>15.697202</v>
+        <v>15.697202000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.340000</v>
+        <v>1618.34</v>
       </c>
       <c r="BV5" s="1">
-        <v>-834.627000</v>
+        <v>-834.62699999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>56520.725801</v>
+        <v>56520.725801000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.700202</v>
+        <v>15.700202000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1773.450000</v>
+        <v>1773.45</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1106.210000</v>
+        <v>-1106.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>56531.922987</v>
+        <v>56531.922986999998</v>
       </c>
       <c r="CD5" s="1">
         <v>15.703312</v>
       </c>
       <c r="CE5" s="1">
-        <v>2195.050000</v>
+        <v>2195.0500000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1762.380000</v>
+        <v>-1762.38</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>56359.816672</v>
+        <v>56359.816672000001</v>
       </c>
       <c r="B6" s="1">
         <v>15.655505</v>
       </c>
       <c r="C6" s="1">
-        <v>1146.090000</v>
+        <v>1146.0899999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-231.093000</v>
+        <v>-231.09299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>56369.887441</v>
+        <v>56369.887440999999</v>
       </c>
       <c r="G6" s="1">
-        <v>15.658302</v>
+        <v>15.658302000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.500000</v>
+        <v>1163.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-195.241000</v>
+        <v>-195.24100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>56380.698739</v>
+        <v>56380.698738999999</v>
       </c>
       <c r="L6" s="1">
         <v>15.661305</v>
       </c>
       <c r="M6" s="1">
-        <v>1189.740000</v>
+        <v>1189.74</v>
       </c>
       <c r="N6" s="1">
-        <v>-140.557000</v>
+        <v>-140.55699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>56391.227317</v>
+        <v>56391.227316999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.664230</v>
+        <v>15.66423</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.050000</v>
+        <v>1198.05</v>
       </c>
       <c r="S6" s="1">
-        <v>-121.886000</v>
+        <v>-121.886</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>56401.780730</v>
+        <v>56401.780729999999</v>
       </c>
       <c r="V6" s="1">
         <v>15.667161</v>
       </c>
       <c r="W6" s="1">
-        <v>1206.120000</v>
+        <v>1206.1199999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-103.786000</v>
+        <v>-103.786</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>56412.253721</v>
+        <v>56412.253721000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.670070</v>
+        <v>15.670070000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.087700</v>
+        <v>-89.087699999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>56422.814580</v>
+        <v>56422.814579999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.673004</v>
+        <v>15.673004000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1220.330000</v>
+        <v>1220.33</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.513100</v>
+        <v>-85.513099999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>56433.615918</v>
+        <v>56433.615918000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.676004</v>
+        <v>15.676004000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.732400</v>
+        <v>-89.732399999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>56444.284915</v>
+        <v>56444.284914999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.678968</v>
+        <v>15.678967999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>56455.241488</v>
@@ -1644,210 +2060,210 @@
         <v>15.682012</v>
       </c>
       <c r="AV6" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-122.057000</v>
+        <v>-122.057</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>56466.322150</v>
+        <v>56466.32215</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.685089</v>
       </c>
       <c r="BA6" s="1">
-        <v>1255.290000</v>
+        <v>1255.29</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.867000</v>
+        <v>-139.86699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>56477.279731</v>
+        <v>56477.279731000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.688133</v>
+        <v>15.688133000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.500000</v>
+        <v>1296.5</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.908000</v>
+        <v>-222.90799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>56488.685236</v>
+        <v>56488.685235999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.691301</v>
+        <v>15.691300999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.390000</v>
+        <v>-360.39</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>56499.940453</v>
+        <v>56499.940453000003</v>
       </c>
       <c r="BO6" s="1">
         <v>15.694428</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.257000</v>
+        <v>-583.25699999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>56510.339576</v>
+        <v>56510.339575999998</v>
       </c>
       <c r="BT6" s="1">
         <v>15.697317</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-834.654000</v>
+        <v>-834.654</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>56521.153355</v>
+        <v>56521.153355000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.700320</v>
+        <v>15.70032</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1773.280000</v>
+        <v>1773.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1106.080000</v>
+        <v>-1106.08</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>56532.471067</v>
+        <v>56532.471066999999</v>
       </c>
       <c r="CD6" s="1">
         <v>15.703464</v>
       </c>
       <c r="CE6" s="1">
-        <v>2196.110000</v>
+        <v>2196.11</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1761.870000</v>
+        <v>-1761.87</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>56360.501154</v>
+        <v>56360.501153999998</v>
       </c>
       <c r="B7" s="1">
         <v>15.655695</v>
       </c>
       <c r="C7" s="1">
-        <v>1145.900000</v>
+        <v>1145.9000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-231.138000</v>
+        <v>-231.13800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>56370.576880</v>
+        <v>56370.576880000001</v>
       </c>
       <c r="G7" s="1">
-        <v>15.658494</v>
+        <v>15.658493999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1164.680000</v>
+        <v>1164.68</v>
       </c>
       <c r="I7" s="1">
-        <v>-196.003000</v>
+        <v>-196.00299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>56381.050403</v>
+        <v>56381.050403000001</v>
       </c>
       <c r="L7" s="1">
         <v>15.661403</v>
       </c>
       <c r="M7" s="1">
-        <v>1189.920000</v>
+        <v>1189.92</v>
       </c>
       <c r="N7" s="1">
-        <v>-140.566000</v>
+        <v>-140.566</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>56391.579509</v>
+        <v>56391.579509000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.664328</v>
+        <v>15.664327999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.010000</v>
+        <v>1198.01</v>
       </c>
       <c r="S7" s="1">
-        <v>-121.861000</v>
+        <v>-121.861</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>56402.123958</v>
+        <v>56402.123957999996</v>
       </c>
       <c r="V7" s="1">
-        <v>15.667257</v>
+        <v>15.667256999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1206.230000</v>
+        <v>1206.23</v>
       </c>
       <c r="X7" s="1">
-        <v>-103.887000</v>
+        <v>-103.887</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>56412.912446</v>
+        <v>56412.912446000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.670253</v>
+        <v>15.670253000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.188700</v>
+        <v>-89.188699999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>56423.471738</v>
@@ -1856,210 +2272,210 @@
         <v>15.673187</v>
       </c>
       <c r="AG7" s="1">
-        <v>1220.340000</v>
+        <v>1220.3399999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.552200</v>
+        <v>-85.552199999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>56433.996380</v>
+        <v>56433.996379999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.676110</v>
+        <v>15.67611</v>
       </c>
       <c r="AL7" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.712100</v>
+        <v>-89.712100000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>56444.668767</v>
+        <v>56444.668767000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.679075</v>
+        <v>15.679074999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>56455.608528</v>
+        <v>56455.608527999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.682113</v>
+        <v>15.682112999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-122.039000</v>
+        <v>-122.039</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>56466.680257</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.685189</v>
+        <v>15.685188999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1255.330000</v>
+        <v>1255.33</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.835000</v>
+        <v>-139.83500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>56477.704308</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.688251</v>
+        <v>15.688250999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.901000</v>
+        <v>-222.90100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>56489.109315</v>
+        <v>56489.109315000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.691419</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.363000</v>
+        <v>-360.363</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>56500.326372</v>
+        <v>56500.326372000003</v>
       </c>
       <c r="BO7" s="1">
         <v>15.694535</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.380000</v>
+        <v>1484.38</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-583.309000</v>
+        <v>-583.30899999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>56510.769607</v>
+        <v>56510.769607000002</v>
       </c>
       <c r="BT7" s="1">
         <v>15.697436</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.440000</v>
+        <v>1618.44</v>
       </c>
       <c r="BV7" s="1">
-        <v>-834.712000</v>
+        <v>-834.71199999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>56521.578145</v>
+        <v>56521.578144999999</v>
       </c>
       <c r="BY7" s="1">
         <v>15.700438</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1773.340000</v>
+        <v>1773.34</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1106.090000</v>
+        <v>-1106.0899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>56533.000825</v>
+        <v>56533.000825000003</v>
       </c>
       <c r="CD7" s="1">
         <v>15.703611</v>
       </c>
       <c r="CE7" s="1">
-        <v>2195.290000</v>
+        <v>2195.29</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1763.400000</v>
+        <v>-1763.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>56360.849839</v>
+        <v>56360.849839000002</v>
       </c>
       <c r="B8" s="1">
         <v>15.655792</v>
       </c>
       <c r="C8" s="1">
-        <v>1145.840000</v>
+        <v>1145.8399999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-231.080000</v>
+        <v>-231.08</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>56370.922626</v>
       </c>
       <c r="G8" s="1">
-        <v>15.658590</v>
+        <v>15.65859</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.720000</v>
+        <v>1163.72</v>
       </c>
       <c r="I8" s="1">
-        <v>-196.338000</v>
+        <v>-196.33799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>56381.394626</v>
+        <v>56381.394626000001</v>
       </c>
       <c r="L8" s="1">
-        <v>15.661499</v>
+        <v>15.661498999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1189.890000</v>
+        <v>1189.8900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-140.520000</v>
+        <v>-140.52000000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>56391.926688</v>
@@ -2068,163 +2484,163 @@
         <v>15.664424</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.120000</v>
+        <v>1198.1199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-121.855000</v>
+        <v>-121.855</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>56402.774677</v>
+        <v>56402.774677000001</v>
       </c>
       <c r="V8" s="1">
         <v>15.667437</v>
       </c>
       <c r="W8" s="1">
-        <v>1206.270000</v>
+        <v>1206.27</v>
       </c>
       <c r="X8" s="1">
-        <v>-104.030000</v>
+        <v>-104.03</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>56413.302265</v>
+        <v>56413.302264999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.670362</v>
+        <v>15.670362000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.110900</v>
+        <v>-89.110900000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>56423.844729</v>
+        <v>56423.844728999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.673290</v>
+        <v>15.67329</v>
       </c>
       <c r="AG8" s="1">
-        <v>1220.360000</v>
+        <v>1220.3599999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.574800</v>
+        <v>-85.574799999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>56434.344548</v>
+        <v>56434.344548000001</v>
       </c>
       <c r="AK8" s="1">
         <v>15.676207</v>
       </c>
       <c r="AL8" s="1">
-        <v>1228.010000</v>
+        <v>1228.01</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.710000</v>
+        <v>-89.71</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>56445.023934</v>
+        <v>56445.023933999997</v>
       </c>
       <c r="AP8" s="1">
         <v>15.679173</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>56455.972095</v>
+        <v>56455.972094999997</v>
       </c>
       <c r="AU8" s="1">
         <v>15.682214</v>
       </c>
       <c r="AV8" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW8" s="1">
-        <v>-122.047000</v>
+        <v>-122.047</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>56467.103350</v>
+        <v>56467.103349999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.685306</v>
+        <v>15.685306000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1255.290000</v>
+        <v>1255.29</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.817000</v>
+        <v>-139.81700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>56478.001409</v>
+        <v>56478.001408999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.688334</v>
+        <v>15.688333999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.420000</v>
+        <v>1296.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.859000</v>
+        <v>-222.85900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>56489.459987</v>
+        <v>56489.459987000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>15.691517</v>
+        <v>15.691516999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.640000</v>
+        <v>1367.64</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.396000</v>
+        <v>-360.39600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>56500.748932</v>
+        <v>56500.748932000002</v>
       </c>
       <c r="BO8" s="1">
         <v>15.694652</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.323000</v>
+        <v>-583.32299999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>56511.194678</v>
@@ -2233,120 +2649,120 @@
         <v>15.697554</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.520000</v>
+        <v>1618.52</v>
       </c>
       <c r="BV8" s="1">
-        <v>-834.622000</v>
+        <v>-834.62199999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>56522.027800</v>
+        <v>56522.027800000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.700563</v>
+        <v>15.700563000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1773.280000</v>
+        <v>1773.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1106.060000</v>
+        <v>-1106.06</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>56533.517166</v>
+        <v>56533.517165999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.703755</v>
+        <v>15.703754999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.970000</v>
+        <v>2194.9699999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1762.360000</v>
+        <v>-1762.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>56361.193069</v>
+        <v>56361.193069000001</v>
       </c>
       <c r="B9" s="1">
         <v>15.655887</v>
       </c>
       <c r="C9" s="1">
-        <v>1146.220000</v>
+        <v>1146.22</v>
       </c>
       <c r="D9" s="1">
-        <v>-230.692000</v>
+        <v>-230.69200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>56371.271775</v>
+        <v>56371.271775000001</v>
       </c>
       <c r="G9" s="1">
         <v>15.658687</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.140000</v>
+        <v>1163.1400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-196.402000</v>
+        <v>-196.40199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>56382.054800</v>
+        <v>56382.054799999998</v>
       </c>
       <c r="L9" s="1">
-        <v>15.661682</v>
+        <v>15.661682000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1189.760000</v>
+        <v>1189.76</v>
       </c>
       <c r="N9" s="1">
-        <v>-140.717000</v>
+        <v>-140.71700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>56392.618628</v>
+        <v>56392.618627999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.664616</v>
+        <v>15.664616000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-121.918000</v>
+        <v>-121.91800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>56403.153621</v>
+        <v>56403.153620999998</v>
       </c>
       <c r="V9" s="1">
         <v>15.667543</v>
       </c>
       <c r="W9" s="1">
-        <v>1206.350000</v>
+        <v>1206.3499999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-103.820000</v>
+        <v>-103.82</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>56413.648471</v>
@@ -2355,375 +2771,375 @@
         <v>15.670458</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.225100</v>
+        <v>-89.225099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>56424.188953</v>
+        <v>56424.188952999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.673386</v>
+        <v>15.673386000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1220.370000</v>
+        <v>1220.3699999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.473500</v>
+        <v>-85.473500000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56434.695739</v>
+        <v>56434.695739000003</v>
       </c>
       <c r="AK9" s="1">
         <v>15.676304</v>
       </c>
       <c r="AL9" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.738600</v>
+        <v>-89.738600000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>56445.444013</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.679290</v>
+        <v>15.67929</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1236.370000</v>
+        <v>1236.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>56456.400332</v>
+        <v>56456.400331999997</v>
       </c>
       <c r="AU9" s="1">
         <v>15.682333</v>
       </c>
       <c r="AV9" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW9" s="1">
-        <v>-122.060000</v>
+        <v>-122.06</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>56467.397471</v>
+        <v>56467.397470999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.685388</v>
       </c>
       <c r="BA9" s="1">
-        <v>1255.330000</v>
+        <v>1255.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.900000</v>
+        <v>-139.9</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>56478.359553</v>
+        <v>56478.359553000002</v>
       </c>
       <c r="BE9" s="1">
         <v>15.688433</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.430000</v>
+        <v>1296.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.879000</v>
+        <v>-222.87899999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>56489.835458</v>
+        <v>56489.835458000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>15.691621</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.389000</v>
+        <v>-360.38900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>56501.149699</v>
+        <v>56501.149699000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.694764</v>
+        <v>15.694763999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.262000</v>
+        <v>-583.26199999999994</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>56511.617766</v>
+        <v>56511.617766000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.697672</v>
+        <v>15.697672000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.480000</v>
+        <v>1618.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-834.675000</v>
+        <v>-834.67499999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>56522.460311</v>
+        <v>56522.460311000003</v>
       </c>
       <c r="BY9" s="1">
         <v>15.700683</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1773.500000</v>
+        <v>1773.5</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1106.230000</v>
+        <v>-1106.23</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>56534.071159</v>
+        <v>56534.071158999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.703909</v>
+        <v>15.703908999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2195.780000</v>
+        <v>2195.7800000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1761.890000</v>
+        <v>-1761.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>56361.865643</v>
+        <v>56361.865642999997</v>
       </c>
       <c r="B10" s="1">
         <v>15.656074</v>
       </c>
       <c r="C10" s="1">
-        <v>1146.100000</v>
+        <v>1146.0999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-230.973000</v>
+        <v>-230.97300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>56371.929015</v>
+        <v>56371.929015000002</v>
       </c>
       <c r="G10" s="1">
-        <v>15.658869</v>
+        <v>15.658868999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.170000</v>
+        <v>1164.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-195.728000</v>
+        <v>-195.72800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>56382.429776</v>
+        <v>56382.429775999997</v>
       </c>
       <c r="L10" s="1">
-        <v>15.661786</v>
+        <v>15.661785999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1189.960000</v>
+        <v>1189.96</v>
       </c>
       <c r="N10" s="1">
-        <v>-140.467000</v>
+        <v>-140.46700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>56392.968770</v>
+        <v>56392.968769999999</v>
       </c>
       <c r="Q10" s="1">
         <v>15.664714</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-121.909000</v>
+        <v>-121.90900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>56403.498376</v>
+        <v>56403.498376000003</v>
       </c>
       <c r="V10" s="1">
         <v>15.667638</v>
       </c>
       <c r="W10" s="1">
-        <v>1206.300000</v>
+        <v>1206.3</v>
       </c>
       <c r="X10" s="1">
-        <v>-104.116000</v>
+        <v>-104.116</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>56413.998679</v>
+        <v>56413.998678999997</v>
       </c>
       <c r="AA10" s="1">
         <v>15.670555</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.094600</v>
+        <v>-89.0946</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>56424.530200</v>
+        <v>56424.530200000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.673481</v>
+        <v>15.673481000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1220.350000</v>
+        <v>1220.3499999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.741900</v>
+        <v>-85.741900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>56435.111883</v>
+        <v>56435.111882999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.676420</v>
+        <v>15.67642</v>
       </c>
       <c r="AL10" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.727400</v>
+        <v>-89.727400000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>56445.749062</v>
+        <v>56445.749062000003</v>
       </c>
       <c r="AP10" s="1">
         <v>15.679375</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.243000</v>
+        <v>-102.24299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>56456.707166</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.682419</v>
+        <v>15.682418999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-122.032000</v>
+        <v>-122.032</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>56467.758031</v>
+        <v>56467.758030999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.685488</v>
+        <v>15.685487999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1255.330000</v>
+        <v>1255.33</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.836000</v>
+        <v>-139.83600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>56478.726065</v>
+        <v>56478.726065000003</v>
       </c>
       <c r="BE10" s="1">
         <v>15.688535</v>
       </c>
       <c r="BF10" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.876000</v>
+        <v>-222.876</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>56490.552673</v>
+        <v>56490.552672999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.691820</v>
+        <v>15.69182</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.396000</v>
+        <v>-360.39600000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>56501.575762</v>
@@ -2732,105 +3148,105 @@
         <v>15.694882</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-583.340000</v>
+        <v>-583.34</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>56512.039403</v>
+        <v>56512.039403000002</v>
       </c>
       <c r="BT10" s="1">
         <v>15.697789</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.480000</v>
+        <v>1618.48</v>
       </c>
       <c r="BV10" s="1">
-        <v>-834.699000</v>
+        <v>-834.69899999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>56522.879432</v>
+        <v>56522.879432000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.700800</v>
+        <v>15.700799999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.260000</v>
+        <v>1773.26</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1106.060000</v>
+        <v>-1106.06</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>56534.599927</v>
+        <v>56534.599927000003</v>
       </c>
       <c r="CD10" s="1">
         <v>15.704056</v>
       </c>
       <c r="CE10" s="1">
-        <v>2195.400000</v>
+        <v>2195.4</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1763.680000</v>
+        <v>-1763.68</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>56362.212843</v>
+        <v>56362.212843000001</v>
       </c>
       <c r="B11" s="1">
-        <v>15.656170</v>
+        <v>15.656169999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1146.160000</v>
+        <v>1146.1600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-230.757000</v>
+        <v>-230.75700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>56372.301506</v>
+        <v>56372.301506000003</v>
       </c>
       <c r="G11" s="1">
         <v>15.658973</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.920000</v>
+        <v>1163.92</v>
       </c>
       <c r="I11" s="1">
-        <v>-196.114000</v>
+        <v>-196.114</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>56382.774001</v>
+        <v>56382.774000999998</v>
       </c>
       <c r="L11" s="1">
         <v>15.661882</v>
       </c>
       <c r="M11" s="1">
-        <v>1189.890000</v>
+        <v>1189.8900000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-140.658000</v>
+        <v>-140.65799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>56393.319441</v>
@@ -2839,133 +3255,133 @@
         <v>15.664811</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.080000</v>
+        <v>1198.08</v>
       </c>
       <c r="S11" s="1">
-        <v>-121.889000</v>
+        <v>-121.889</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>56403.850500</v>
+        <v>56403.8505</v>
       </c>
       <c r="V11" s="1">
         <v>15.667736</v>
       </c>
       <c r="W11" s="1">
-        <v>1206.360000</v>
+        <v>1206.3599999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-103.835000</v>
+        <v>-103.83499999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>56414.429207</v>
+        <v>56414.429207000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.670675</v>
+        <v>15.670674999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.040000</v>
+        <v>1215.04</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.054300</v>
+        <v>-89.054299999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>56425.038104</v>
+        <v>56425.038103999999</v>
       </c>
       <c r="AF11" s="1">
         <v>15.673622</v>
       </c>
       <c r="AG11" s="1">
-        <v>1220.400000</v>
+        <v>1220.4000000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.522300</v>
+        <v>-85.522300000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>56435.391594</v>
+        <v>56435.391594000001</v>
       </c>
       <c r="AK11" s="1">
         <v>15.676498</v>
       </c>
       <c r="AL11" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.721000</v>
+        <v>-89.721000000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>56446.107661</v>
+        <v>56446.107661000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.679474</v>
+        <v>15.679474000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.188000</v>
+        <v>-102.188</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>56457.066269</v>
+        <v>56457.066269000003</v>
       </c>
       <c r="AU11" s="1">
         <v>15.682518</v>
       </c>
       <c r="AV11" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW11" s="1">
-        <v>-122.063000</v>
+        <v>-122.063</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>56468.116640</v>
+        <v>56468.11664</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.685588</v>
+        <v>15.685587999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.853000</v>
+        <v>-139.85300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>56479.446273</v>
+        <v>56479.446273000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.688735</v>
+        <v>15.688734999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.490000</v>
+        <v>1296.49</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.919000</v>
+        <v>-222.91900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>56490.961377</v>
@@ -2974,572 +3390,572 @@
         <v>15.691934</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.363000</v>
+        <v>-360.363</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>56501.964166</v>
+        <v>56501.964165999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.694990</v>
+        <v>15.694990000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.321000</v>
+        <v>-583.32100000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>56512.467935</v>
+        <v>56512.467935000001</v>
       </c>
       <c r="BT11" s="1">
         <v>15.697908</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.650000</v>
+        <v>1618.65</v>
       </c>
       <c r="BV11" s="1">
-        <v>-834.651000</v>
+        <v>-834.65099999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>56523.630913</v>
+        <v>56523.630913000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.701009</v>
+        <v>15.701009000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.180000</v>
+        <v>1773.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1106.130000</v>
+        <v>-1106.1300000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>56535.425754</v>
+        <v>56535.425754000004</v>
       </c>
       <c r="CD11" s="1">
         <v>15.704285</v>
       </c>
       <c r="CE11" s="1">
-        <v>2197.500000</v>
+        <v>2197.5</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1763.870000</v>
+        <v>-1763.87</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>56362.560074</v>
+        <v>56362.560074000001</v>
       </c>
       <c r="B12" s="1">
         <v>15.656267</v>
       </c>
       <c r="C12" s="1">
-        <v>1145.720000</v>
+        <v>1145.72</v>
       </c>
       <c r="D12" s="1">
-        <v>-230.663000</v>
+        <v>-230.66300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>56372.646190</v>
+        <v>56372.646189999999</v>
       </c>
       <c r="G12" s="1">
         <v>15.659068</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.550000</v>
+        <v>1163.55</v>
       </c>
       <c r="I12" s="1">
-        <v>-196.052000</v>
+        <v>-196.05199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>56383.124672</v>
+        <v>56383.124671999998</v>
       </c>
       <c r="L12" s="1">
-        <v>15.661979</v>
+        <v>15.661979000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1189.960000</v>
+        <v>1189.96</v>
       </c>
       <c r="N12" s="1">
-        <v>-140.553000</v>
+        <v>-140.553</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>56393.749969</v>
+        <v>56393.749968999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.664931</v>
+        <v>15.664930999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="S12" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>56404.289957</v>
+        <v>56404.289957000001</v>
       </c>
       <c r="V12" s="1">
-        <v>15.667858</v>
+        <v>15.667858000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1206.280000</v>
+        <v>1206.28</v>
       </c>
       <c r="X12" s="1">
-        <v>-103.962000</v>
+        <v>-103.962</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>56414.706965</v>
+        <v>56414.706964999998</v>
       </c>
       <c r="AA12" s="1">
         <v>15.670752</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.980000</v>
+        <v>1214.98</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.074900</v>
+        <v>-89.0749</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>56425.224601</v>
+        <v>56425.224601000002</v>
       </c>
       <c r="AF12" s="1">
         <v>15.673674</v>
       </c>
       <c r="AG12" s="1">
-        <v>1220.360000</v>
+        <v>1220.3599999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.558500</v>
+        <v>-85.558499999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>56435.741275</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.676595</v>
+        <v>15.676595000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.718900</v>
+        <v>-89.718900000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>56446.471227</v>
+        <v>56446.471227000002</v>
       </c>
       <c r="AP12" s="1">
         <v>15.679575</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.226000</v>
+        <v>-102.226</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>56457.764650</v>
+        <v>56457.764649999997</v>
       </c>
       <c r="AU12" s="1">
         <v>15.682712</v>
       </c>
       <c r="AV12" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-122.038000</v>
+        <v>-122.038</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>56468.837326</v>
+        <v>56468.837326000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.685788</v>
+        <v>15.685788000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1255.330000</v>
+        <v>1255.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.884000</v>
+        <v>-139.88399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>56479.836145</v>
+        <v>56479.836145000001</v>
       </c>
       <c r="BE12" s="1">
         <v>15.688843</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.460000</v>
+        <v>1296.46</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.892000</v>
+        <v>-222.892</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>56491.335856</v>
+        <v>56491.335855999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.692038</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.351000</v>
+        <v>-360.351</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>56502.383281</v>
+        <v>56502.383281000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.695106</v>
+        <v>15.695105999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.370000</v>
+        <v>1484.37</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-583.300000</v>
+        <v>-583.29999999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>56513.193555</v>
+        <v>56513.193554999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.698109</v>
+        <v>15.698109000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.580000</v>
+        <v>1618.58</v>
       </c>
       <c r="BV12" s="1">
-        <v>-834.651000</v>
+        <v>-834.65099999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>56523.756853</v>
+        <v>56523.756852999999</v>
       </c>
       <c r="BY12" s="1">
         <v>15.701044</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1773.350000</v>
+        <v>1773.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1106.250000</v>
+        <v>-1106.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>56535.637065</v>
+        <v>56535.637065000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.704344</v>
+        <v>15.704344000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2197.570000</v>
+        <v>2197.5700000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1761.670000</v>
+        <v>-1761.67</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>56362.898847</v>
+        <v>56362.898846999997</v>
       </c>
       <c r="B13" s="1">
         <v>15.656361</v>
       </c>
       <c r="C13" s="1">
-        <v>1146.140000</v>
+        <v>1146.1400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-230.705000</v>
+        <v>-230.70500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>56372.991900</v>
+        <v>56372.991900000001</v>
       </c>
       <c r="G13" s="1">
-        <v>15.659164</v>
+        <v>15.659164000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1164.130000</v>
+        <v>1164.1300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-195.564000</v>
+        <v>-195.56399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>56383.547758</v>
+        <v>56383.547758000001</v>
       </c>
       <c r="L13" s="1">
-        <v>15.662097</v>
+        <v>15.662096999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1190.110000</v>
+        <v>1190.1099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-140.607000</v>
+        <v>-140.607</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>56394.023265</v>
+        <v>56394.023265000003</v>
       </c>
       <c r="Q13" s="1">
         <v>15.665006</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-121.811000</v>
+        <v>-121.81100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>56404.555315</v>
+        <v>56404.555314999998</v>
       </c>
       <c r="V13" s="1">
         <v>15.667932</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-103.849000</v>
+        <v>-103.849</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>56415.055157</v>
+        <v>56415.055157000003</v>
       </c>
       <c r="AA13" s="1">
         <v>15.670849</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.157500</v>
+        <v>-89.157499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>56425.569938</v>
+        <v>56425.569938000001</v>
       </c>
       <c r="AF13" s="1">
         <v>15.673769</v>
       </c>
       <c r="AG13" s="1">
-        <v>1220.370000</v>
+        <v>1220.3699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.586500</v>
+        <v>-85.586500000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>56436.090457</v>
+        <v>56436.090456999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.676692</v>
+        <v>15.676691999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1228.060000</v>
+        <v>1228.06</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.744500</v>
+        <v>-89.744500000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>56447.189435</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.679775</v>
+        <v>15.679774999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.224000</v>
+        <v>-102.224</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>56458.158492</v>
+        <v>56458.158492000002</v>
       </c>
       <c r="AU13" s="1">
         <v>15.682822</v>
       </c>
       <c r="AV13" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-122.040000</v>
+        <v>-122.04</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>56469.215917</v>
+        <v>56469.215917000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.685893</v>
       </c>
       <c r="BA13" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.850000</v>
+        <v>-139.85</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>56480.195712</v>
+        <v>56480.195712000001</v>
       </c>
       <c r="BE13" s="1">
         <v>15.688943</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.460000</v>
+        <v>1296.46</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.912000</v>
+        <v>-222.91200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>56492.027311</v>
+        <v>56492.027310999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.692230</v>
+        <v>15.69223</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.700000</v>
+        <v>1367.7</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.368000</v>
+        <v>-360.36799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>56503.098976</v>
+        <v>56503.098976000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.695305</v>
+        <v>15.695304999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.320000</v>
+        <v>-583.32000000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>56513.309621</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.698142</v>
+        <v>15.698142000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1618.620000</v>
+        <v>1618.62</v>
       </c>
       <c r="BV13" s="1">
-        <v>-834.761000</v>
+        <v>-834.76099999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>56524.195349</v>
+        <v>56524.195349000001</v>
       </c>
       <c r="BY13" s="1">
         <v>15.701165</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1773.510000</v>
+        <v>1773.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1106.130000</v>
+        <v>-1106.1300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>56536.154358</v>
@@ -3548,467 +3964,467 @@
         <v>15.704487</v>
       </c>
       <c r="CE13" s="1">
-        <v>2197.570000</v>
+        <v>2197.5700000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1762.300000</v>
+        <v>-1762.3</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>56363.327390</v>
+        <v>56363.327389999999</v>
       </c>
       <c r="B14" s="1">
-        <v>15.656480</v>
+        <v>15.65648</v>
       </c>
       <c r="C14" s="1">
-        <v>1146.070000</v>
+        <v>1146.07</v>
       </c>
       <c r="D14" s="1">
-        <v>-230.666000</v>
+        <v>-230.666</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>56373.421965</v>
+        <v>56373.421965000001</v>
       </c>
       <c r="G14" s="1">
         <v>15.659284</v>
       </c>
       <c r="H14" s="1">
-        <v>1163.630000</v>
+        <v>1163.6300000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-195.814000</v>
+        <v>-195.81399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>56383.826022</v>
+        <v>56383.826022000001</v>
       </c>
       <c r="L14" s="1">
         <v>15.662174</v>
       </c>
       <c r="M14" s="1">
-        <v>1189.770000</v>
+        <v>1189.77</v>
       </c>
       <c r="N14" s="1">
-        <v>-140.927000</v>
+        <v>-140.92699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>56394.375425</v>
+        <v>56394.375424999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.665104</v>
+        <v>15.665103999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-121.910000</v>
+        <v>-121.91</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>56404.899042</v>
+        <v>56404.899041999997</v>
       </c>
       <c r="V14" s="1">
         <v>15.668028</v>
       </c>
       <c r="W14" s="1">
-        <v>1206.320000</v>
+        <v>1206.32</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.088000</v>
+        <v>-104.08799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>56415.405300</v>
+        <v>56415.405299999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.670946</v>
+        <v>15.670946000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.076900</v>
+        <v>-89.076899999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>56426.254826</v>
+        <v>56426.254825999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.673960</v>
+        <v>15.673959999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1220.260000</v>
+        <v>1220.26</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.526300</v>
+        <v>-85.526300000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>56436.786346</v>
+        <v>56436.786346000001</v>
       </c>
       <c r="AK14" s="1">
         <v>15.676885</v>
       </c>
       <c r="AL14" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.723900</v>
+        <v>-89.7239</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>56447.551318</v>
+        <v>56447.551317999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.679875</v>
+        <v>15.679874999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>56458.524049</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.682923</v>
+        <v>15.682923000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW14" s="1">
-        <v>-122.023000</v>
+        <v>-122.023</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>56469.593746</v>
+        <v>56469.593745999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.685998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1255.340000</v>
+        <v>1255.3399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.893000</v>
+        <v>-139.893</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>56480.874733</v>
+        <v>56480.874732999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.689132</v>
+        <v>15.689132000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.876000</v>
+        <v>-222.876</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>56492.459792</v>
+        <v>56492.459792000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.692350</v>
+        <v>15.692349999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.690000</v>
+        <v>1367.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.397000</v>
+        <v>-360.39699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>56503.217552</v>
+        <v>56503.217552000002</v>
       </c>
       <c r="BO14" s="1">
         <v>15.695338</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.400000</v>
+        <v>1484.4</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-583.279000</v>
+        <v>-583.279</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>56513.748615</v>
+        <v>56513.748614999997</v>
       </c>
       <c r="BT14" s="1">
         <v>15.698264</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.740000</v>
+        <v>1618.74</v>
       </c>
       <c r="BV14" s="1">
-        <v>-834.772000</v>
+        <v>-834.77200000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>56524.615956</v>
+        <v>56524.615956000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.701282</v>
+        <v>15.701282000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1773.490000</v>
+        <v>1773.49</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1106.190000</v>
+        <v>-1106.19</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>56536.706404</v>
+        <v>56536.706403999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.704641</v>
+        <v>15.704641000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2197.560000</v>
+        <v>2197.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1763.770000</v>
+        <v>-1763.77</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>56363.600153</v>
+        <v>56363.600152999999</v>
       </c>
       <c r="B15" s="1">
         <v>15.656556</v>
       </c>
       <c r="C15" s="1">
-        <v>1145.970000</v>
+        <v>1145.97</v>
       </c>
       <c r="D15" s="1">
-        <v>-230.920000</v>
+        <v>-230.92</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>56373.679357</v>
+        <v>56373.679357000001</v>
       </c>
       <c r="G15" s="1">
         <v>15.659355</v>
       </c>
       <c r="H15" s="1">
-        <v>1164.080000</v>
+        <v>1164.08</v>
       </c>
       <c r="I15" s="1">
-        <v>-196.311000</v>
+        <v>-196.31100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>56384.174207</v>
+        <v>56384.174206999996</v>
       </c>
       <c r="L15" s="1">
         <v>15.662271</v>
       </c>
       <c r="M15" s="1">
-        <v>1189.800000</v>
+        <v>1189.8</v>
       </c>
       <c r="N15" s="1">
-        <v>-140.610000</v>
+        <v>-140.61000000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>56394.722627</v>
+        <v>56394.722627000003</v>
       </c>
       <c r="Q15" s="1">
         <v>15.665201</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.150000</v>
+        <v>1198.1500000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-121.976000</v>
+        <v>-121.976</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>56405.242807</v>
+        <v>56405.242807000002</v>
       </c>
       <c r="V15" s="1">
         <v>15.668123</v>
       </c>
       <c r="W15" s="1">
-        <v>1206.410000</v>
+        <v>1206.4100000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-103.892000</v>
+        <v>-103.892</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>56416.101188</v>
+        <v>56416.101188000001</v>
       </c>
       <c r="AA15" s="1">
         <v>15.671139</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.201900</v>
+        <v>-89.201899999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>56426.598023</v>
+        <v>56426.598022999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.674055</v>
+        <v>15.674054999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1220.450000</v>
+        <v>1220.45</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.534300</v>
+        <v>-85.534300000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>56437.134071</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.676982</v>
+        <v>15.676982000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.703400</v>
+        <v>-89.703400000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>56447.909656</v>
+        <v>56447.909656000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.679975</v>
+        <v>15.679975000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.243000</v>
+        <v>-102.24299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>56459.201052</v>
+        <v>56459.201051999997</v>
       </c>
       <c r="AU15" s="1">
         <v>15.683111</v>
       </c>
       <c r="AV15" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-122.051000</v>
+        <v>-122.051</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>56470.267293</v>
+        <v>56470.267292999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.686185</v>
       </c>
       <c r="BA15" s="1">
-        <v>1255.340000</v>
+        <v>1255.3399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.877000</v>
+        <v>-139.87700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>56481.304304</v>
+        <v>56481.304303999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.689251</v>
+        <v>15.689251000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.680000</v>
+        <v>1296.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.940000</v>
+        <v>-222.94</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>56492.851176</v>
+        <v>56492.851175999996</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.692459</v>
+        <v>15.692458999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.371000</v>
+        <v>-360.37099999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>56503.626224</v>
@@ -4017,437 +4433,437 @@
         <v>15.695452</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-583.300000</v>
+        <v>-583.29999999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>56514.177618</v>
+        <v>56514.177618000002</v>
       </c>
       <c r="BT15" s="1">
         <v>15.698383</v>
       </c>
       <c r="BU15" s="1">
-        <v>1618.770000</v>
+        <v>1618.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-834.704000</v>
+        <v>-834.70399999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>56525.036533</v>
+        <v>56525.036532999999</v>
       </c>
       <c r="BY15" s="1">
         <v>15.701399</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.110000</v>
+        <v>1773.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1106.090000</v>
+        <v>-1106.0899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>56537.235635</v>
+        <v>56537.235634999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.704788</v>
+        <v>15.704788000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2197.040000</v>
+        <v>2197.04</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1761.390000</v>
+        <v>-1761.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>56363.942921</v>
+        <v>56363.942921000002</v>
       </c>
       <c r="B16" s="1">
         <v>15.656651</v>
       </c>
       <c r="C16" s="1">
-        <v>1146.080000</v>
+        <v>1146.08</v>
       </c>
       <c r="D16" s="1">
-        <v>-230.861000</v>
+        <v>-230.86099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56374.027548</v>
+        <v>56374.027547999998</v>
       </c>
       <c r="G16" s="1">
         <v>15.659452</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.190000</v>
+        <v>1164.19</v>
       </c>
       <c r="I16" s="1">
-        <v>-196.558000</v>
+        <v>-196.55799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>56384.516971</v>
+        <v>56384.516970999997</v>
       </c>
       <c r="L16" s="1">
         <v>15.662366</v>
       </c>
       <c r="M16" s="1">
-        <v>1190.050000</v>
+        <v>1190.05</v>
       </c>
       <c r="N16" s="1">
-        <v>-140.580000</v>
+        <v>-140.58000000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>56395.420991</v>
+        <v>56395.420990999999</v>
       </c>
       <c r="Q16" s="1">
         <v>15.665395</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-122.005000</v>
+        <v>-122.005</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>56405.931218</v>
+        <v>56405.931217999998</v>
       </c>
       <c r="V16" s="1">
-        <v>15.668314</v>
+        <v>15.668314000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1206.210000</v>
+        <v>1206.21</v>
       </c>
       <c r="X16" s="1">
-        <v>-103.916000</v>
+        <v>-103.916</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>56416.446403</v>
+        <v>56416.446403000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.671235</v>
+        <v>15.671234999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.060000</v>
+        <v>1215.06</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.215300</v>
+        <v>-89.215299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>56426.939766</v>
+        <v>56426.939766000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.674150</v>
+        <v>15.674149999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1220.370000</v>
+        <v>1220.3699999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.520500</v>
+        <v>-85.520499999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>56437.485544</v>
+        <v>56437.485544000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.677079</v>
+        <v>15.677079000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.723800</v>
+        <v>-89.723799999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>56448.586169</v>
+        <v>56448.586169000002</v>
       </c>
       <c r="AP16" s="1">
         <v>15.680163</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.204000</v>
+        <v>-102.20399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>56459.616858</v>
+        <v>56459.616858000001</v>
       </c>
       <c r="AU16" s="1">
         <v>15.683227</v>
       </c>
       <c r="AV16" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-122.034000</v>
+        <v>-122.03400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>56470.676493</v>
+        <v>56470.676492999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.686299</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.340000</v>
+        <v>1255.3399999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.856000</v>
+        <v>-139.85599999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>56481.895004</v>
+        <v>56481.895003999998</v>
       </c>
       <c r="BE16" s="1">
         <v>15.689415</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.915000</v>
+        <v>-222.91499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>56493.211727</v>
+        <v>56493.211727000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.692559</v>
+        <v>15.692558999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.389000</v>
+        <v>-360.38900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>56504.023520</v>
+        <v>56504.023520000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.695562</v>
+        <v>15.695562000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.339000</v>
+        <v>-583.33900000000006</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>56514.612647</v>
+        <v>56514.612647000002</v>
       </c>
       <c r="BT16" s="1">
         <v>15.698504</v>
       </c>
       <c r="BU16" s="1">
-        <v>1618.800000</v>
+        <v>1618.8</v>
       </c>
       <c r="BV16" s="1">
-        <v>-834.644000</v>
+        <v>-834.64400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>56525.465571</v>
+        <v>56525.465571000001</v>
       </c>
       <c r="BY16" s="1">
         <v>15.701518</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1773.350000</v>
+        <v>1773.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1106.360000</v>
+        <v>-1106.3599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>56537.753459</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.704932</v>
+        <v>15.704931999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.470000</v>
+        <v>2197.4699999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1762.100000</v>
+        <v>-1762.1</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>56364.283677</v>
+        <v>56364.283676999999</v>
       </c>
       <c r="B17" s="1">
-        <v>15.656745</v>
+        <v>15.656745000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1145.960000</v>
+        <v>1145.96</v>
       </c>
       <c r="D17" s="1">
-        <v>-230.788000</v>
+        <v>-230.78800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>56374.372763</v>
+        <v>56374.372762999999</v>
       </c>
       <c r="G17" s="1">
-        <v>15.659548</v>
+        <v>15.659547999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1163.660000</v>
+        <v>1163.6600000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-195.923000</v>
+        <v>-195.923</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>56385.211870</v>
+        <v>56385.211869999999</v>
       </c>
       <c r="L17" s="1">
         <v>15.662559</v>
       </c>
       <c r="M17" s="1">
-        <v>1189.990000</v>
+        <v>1189.99</v>
       </c>
       <c r="N17" s="1">
-        <v>-140.679000</v>
+        <v>-140.679</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>56395.767199</v>
+        <v>56395.767199000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.665491</v>
+        <v>15.665490999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.000000</v>
+        <v>1198</v>
       </c>
       <c r="S17" s="1">
-        <v>-121.890000</v>
+        <v>-121.89</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>56406.273458</v>
+        <v>56406.273458000003</v>
       </c>
       <c r="V17" s="1">
         <v>15.668409</v>
       </c>
       <c r="W17" s="1">
-        <v>1206.200000</v>
+        <v>1206.2</v>
       </c>
       <c r="X17" s="1">
-        <v>-103.906000</v>
+        <v>-103.90600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>56416.798070</v>
+        <v>56416.798069999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.671333</v>
+        <v>15.671333000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.233900</v>
+        <v>-89.233900000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>56427.601429</v>
+        <v>56427.601429000002</v>
       </c>
       <c r="AF17" s="1">
         <v>15.674334</v>
       </c>
       <c r="AG17" s="1">
-        <v>1220.350000</v>
+        <v>1220.3499999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.508800</v>
+        <v>-85.508799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>56438.149848</v>
+        <v>56438.149848000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.677264</v>
+        <v>15.677263999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.754700</v>
+        <v>-89.7547</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>56449.014744</v>
@@ -4456,43 +4872,43 @@
         <v>15.680282</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.182000</v>
+        <v>-102.182</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>56459.985225</v>
+        <v>56459.985224999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.683329</v>
+        <v>15.683329000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-122.057000</v>
+        <v>-122.057</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>56471.054973</v>
+        <v>56471.054972999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.686404</v>
       </c>
       <c r="BA17" s="1">
-        <v>1255.340000</v>
+        <v>1255.3399999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.866000</v>
+        <v>-139.86600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>56482.304204</v>
@@ -4501,210 +4917,210 @@
         <v>15.689529</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.929000</v>
+        <v>-222.929</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>56493.647213</v>
+        <v>56493.647212999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.692680</v>
+        <v>15.692679999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.389000</v>
+        <v>-360.38900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>56504.453054</v>
+        <v>56504.453053999998</v>
       </c>
       <c r="BO17" s="1">
         <v>15.695681</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.380000</v>
+        <v>1484.38</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.307000</v>
+        <v>-583.30700000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>56515.019329</v>
+        <v>56515.019329000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.698616</v>
+        <v>15.698615999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1618.890000</v>
+        <v>1618.89</v>
       </c>
       <c r="BV17" s="1">
-        <v>-834.729000</v>
+        <v>-834.72900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>56525.880757</v>
+        <v>56525.880756999999</v>
       </c>
       <c r="BY17" s="1">
         <v>15.701634</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1773.330000</v>
+        <v>1773.33</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1106.010000</v>
+        <v>-1106.01</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>56538.309474</v>
+        <v>56538.309474000002</v>
       </c>
       <c r="CD17" s="1">
         <v>15.705086</v>
       </c>
       <c r="CE17" s="1">
-        <v>2197.380000</v>
+        <v>2197.38</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1763.870000</v>
+        <v>-1763.87</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>56364.966666</v>
       </c>
       <c r="B18" s="1">
-        <v>15.656935</v>
+        <v>15.656935000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1145.990000</v>
+        <v>1145.99</v>
       </c>
       <c r="D18" s="1">
-        <v>-230.704000</v>
+        <v>-230.70400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>56375.066706</v>
+        <v>56375.066705999998</v>
       </c>
       <c r="G18" s="1">
         <v>15.659741</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.770000</v>
+        <v>1163.77</v>
       </c>
       <c r="I18" s="1">
-        <v>-195.560000</v>
+        <v>-195.56</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>56385.567499</v>
+        <v>56385.567498999997</v>
       </c>
       <c r="L18" s="1">
         <v>15.662658</v>
       </c>
       <c r="M18" s="1">
-        <v>1189.790000</v>
+        <v>1189.79</v>
       </c>
       <c r="N18" s="1">
-        <v>-140.660000</v>
+        <v>-140.66</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>56396.117374</v>
+        <v>56396.117374000001</v>
       </c>
       <c r="Q18" s="1">
         <v>15.665588</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="S18" s="1">
-        <v>-121.863000</v>
+        <v>-121.863</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>56406.616192</v>
+        <v>56406.616192000001</v>
       </c>
       <c r="V18" s="1">
         <v>15.668504</v>
       </c>
       <c r="W18" s="1">
-        <v>1206.390000</v>
+        <v>1206.3900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-103.979000</v>
+        <v>-103.979</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>56417.454276</v>
+        <v>56417.454275999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.671515</v>
+        <v>15.671514999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.030000</v>
+        <v>1215.03</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.116500</v>
+        <v>-89.116500000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>56427.972436</v>
+        <v>56427.972435999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.674437</v>
+        <v>15.674436999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1220.450000</v>
+        <v>1220.45</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.554200</v>
+        <v>-85.554199999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>56438.527798</v>
+        <v>56438.527798000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.677369</v>
+        <v>15.677369000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.709200</v>
+        <v>-89.709199999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>56449.374313</v>
@@ -4713,136 +5129,136 @@
         <v>15.680382</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1236.360000</v>
+        <v>1236.3599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>56460.348831</v>
+        <v>56460.348831000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.683430</v>
+        <v>15.68343</v>
       </c>
       <c r="AV18" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-122.080000</v>
+        <v>-122.08</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>56471.431402</v>
+        <v>56471.431402000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.686509</v>
+        <v>15.686508999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.857000</v>
+        <v>-139.857</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>56482.730796</v>
+        <v>56482.730796000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.689647</v>
+        <v>15.689647000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.896000</v>
+        <v>-222.89599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>56493.991964</v>
+        <v>56493.991964000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.692776</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.353000</v>
+        <v>-360.35300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>56504.854814</v>
+        <v>56504.854813999998</v>
       </c>
       <c r="BO18" s="1">
         <v>15.695793</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-583.274000</v>
+        <v>-583.274</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>56515.450384</v>
+        <v>56515.450384000003</v>
       </c>
       <c r="BT18" s="1">
         <v>15.698736</v>
       </c>
       <c r="BU18" s="1">
-        <v>1618.880000</v>
+        <v>1618.88</v>
       </c>
       <c r="BV18" s="1">
-        <v>-834.669000</v>
+        <v>-834.66899999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>56526.329137</v>
+        <v>56526.329137000001</v>
       </c>
       <c r="BY18" s="1">
         <v>15.701758</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1773.270000</v>
+        <v>1773.27</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1106.180000</v>
+        <v>-1106.18</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>56539.242450</v>
+        <v>56539.242449999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.705345</v>
+        <v>15.705344999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.450000</v>
+        <v>2197.4499999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1761.620000</v>
+        <v>-1761.62</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>56365.310394</v>
       </c>
@@ -4850,617 +5266,617 @@
         <v>15.657031</v>
       </c>
       <c r="C19" s="1">
-        <v>1146.160000</v>
+        <v>1146.1600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-230.949000</v>
+        <v>-230.94900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>56375.412409</v>
+        <v>56375.412408999997</v>
       </c>
       <c r="G19" s="1">
         <v>15.659837</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.070000</v>
+        <v>1164.07</v>
       </c>
       <c r="I19" s="1">
-        <v>-195.806000</v>
+        <v>-195.80600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>56385.910235</v>
+        <v>56385.910235000003</v>
       </c>
       <c r="L19" s="1">
         <v>15.662753</v>
       </c>
       <c r="M19" s="1">
-        <v>1189.960000</v>
+        <v>1189.96</v>
       </c>
       <c r="N19" s="1">
-        <v>-140.372000</v>
+        <v>-140.37200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>56396.789948</v>
+        <v>56396.789947999998</v>
       </c>
       <c r="Q19" s="1">
         <v>15.665775</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.150000</v>
+        <v>1198.1500000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-121.901000</v>
+        <v>-121.901</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>56407.277857</v>
+        <v>56407.277857000001</v>
       </c>
       <c r="V19" s="1">
         <v>15.668688</v>
       </c>
       <c r="W19" s="1">
-        <v>1206.380000</v>
+        <v>1206.3800000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-103.852000</v>
+        <v>-103.852</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>56417.843670</v>
+        <v>56417.843670000002</v>
       </c>
       <c r="AA19" s="1">
         <v>15.671623</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.010000</v>
+        <v>1215.01</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.092500</v>
+        <v>-89.092500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>56428.317651</v>
+        <v>56428.317650999998</v>
       </c>
       <c r="AF19" s="1">
         <v>15.674533</v>
       </c>
       <c r="AG19" s="1">
-        <v>1220.300000</v>
+        <v>1220.3</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.570300</v>
+        <v>-85.570300000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>56438.878469</v>
+        <v>56438.878469000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.677466</v>
+        <v>15.677466000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.728600</v>
+        <v>-89.7286</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>56449.735913</v>
+        <v>56449.735912999997</v>
       </c>
       <c r="AP19" s="1">
         <v>15.680482</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>56460.781305</v>
+        <v>56460.781304999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.683550</v>
+        <v>15.68355</v>
       </c>
       <c r="AV19" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-122.018000</v>
+        <v>-122.018</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>56471.866395</v>
+        <v>56471.866394999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.686630</v>
+        <v>15.686629999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.851000</v>
+        <v>-139.851</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>56483.027901</v>
+        <v>56483.027901000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.689730</v>
+        <v>15.689730000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.908000</v>
+        <v>-222.90799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>56494.372892</v>
+        <v>56494.372891999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.692881</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.650000</v>
+        <v>1367.65</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.369000</v>
+        <v>-360.36900000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>56505.265006</v>
+        <v>56505.265006000001</v>
       </c>
       <c r="BO19" s="1">
         <v>15.695907</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.370000</v>
+        <v>1484.37</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-583.359000</v>
+        <v>-583.35900000000004</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>56515.861537</v>
+        <v>56515.861536999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.698850</v>
+        <v>15.69885</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.000000</v>
+        <v>1619</v>
       </c>
       <c r="BV19" s="1">
-        <v>-834.597000</v>
+        <v>-834.59699999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>56526.758173</v>
+        <v>56526.758173000002</v>
       </c>
       <c r="BY19" s="1">
         <v>15.701877</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1773.360000</v>
+        <v>1773.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1106.180000</v>
+        <v>-1106.18</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>56539.366450</v>
+        <v>56539.366450000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.705380</v>
+        <v>15.70538</v>
       </c>
       <c r="CE19" s="1">
-        <v>2197.600000</v>
+        <v>2197.6</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1762.600000</v>
+        <v>-1762.6</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>56365.647638</v>
+        <v>56365.647638000002</v>
       </c>
       <c r="B20" s="1">
         <v>15.657124</v>
       </c>
       <c r="C20" s="1">
-        <v>1145.910000</v>
+        <v>1145.9100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-230.883000</v>
+        <v>-230.88300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>56375.758585</v>
+        <v>56375.758585000003</v>
       </c>
       <c r="G20" s="1">
-        <v>15.659933</v>
+        <v>15.659933000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.910000</v>
+        <v>1163.9100000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-195.641000</v>
+        <v>-195.64099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>56386.566906</v>
       </c>
       <c r="L20" s="1">
-        <v>15.662935</v>
+        <v>15.662934999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1189.830000</v>
+        <v>1189.83</v>
       </c>
       <c r="N20" s="1">
-        <v>-140.418000</v>
+        <v>-140.41800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>56397.161963</v>
+        <v>56397.161962999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.665878</v>
+        <v>15.665877999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.110000</v>
+        <v>1198.1099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-121.928000</v>
+        <v>-121.928</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>56407.646880</v>
+        <v>56407.64688</v>
       </c>
       <c r="V20" s="1">
-        <v>15.668791</v>
+        <v>15.668791000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1206.290000</v>
+        <v>1206.29</v>
       </c>
       <c r="X20" s="1">
-        <v>-103.934000</v>
+        <v>-103.934</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>56418.192818</v>
+        <v>56418.192818000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.671720</v>
+        <v>15.671720000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.980000</v>
+        <v>1214.98</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.144900</v>
+        <v>-89.144900000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>56428.665379</v>
+        <v>56428.665378999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.674629</v>
+        <v>15.674628999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1220.310000</v>
+        <v>1220.31</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.562700</v>
+        <v>-85.562700000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>56439.226696</v>
+        <v>56439.226695999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.677563</v>
+        <v>15.677562999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1228.070000</v>
+        <v>1228.07</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.724400</v>
+        <v>-89.724400000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>56450.162950</v>
+        <v>56450.162949999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.680601</v>
+        <v>15.680600999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1236.370000</v>
+        <v>1236.3699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.233000</v>
+        <v>-102.233</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>56461.075960</v>
+        <v>56461.075960000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.683632</v>
+        <v>15.683631999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-122.033000</v>
+        <v>-122.033</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>56472.149175</v>
+        <v>56472.149174999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.686708</v>
+        <v>15.686707999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.870000</v>
+        <v>-139.87</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>56483.388458</v>
+        <v>56483.388458000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.689830</v>
+        <v>15.689830000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.470000</v>
+        <v>1296.47</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.913000</v>
+        <v>-222.91300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>56494.746348</v>
+        <v>56494.746348000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.692985</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.371000</v>
+        <v>-360.37099999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>56505.664285</v>
+        <v>56505.664284999999</v>
       </c>
       <c r="BO20" s="1">
         <v>15.696018</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.353000</v>
+        <v>-583.35299999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>56516.296528</v>
+        <v>56516.296527999999</v>
       </c>
       <c r="BT20" s="1">
         <v>15.698971</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.000000</v>
+        <v>1619</v>
       </c>
       <c r="BV20" s="1">
-        <v>-834.550000</v>
+        <v>-834.55</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>56527.174786</v>
+        <v>56527.174786000003</v>
       </c>
       <c r="BY20" s="1">
         <v>15.701993</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.330000</v>
+        <v>1773.33</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1106.190000</v>
+        <v>-1106.19</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>56539.893202</v>
+        <v>56539.893201999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.705526</v>
+        <v>15.705526000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2197.360000</v>
+        <v>2197.36</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1763.240000</v>
+        <v>-1763.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>56366.310330</v>
+        <v>56366.31033</v>
       </c>
       <c r="B21" s="1">
         <v>15.657308</v>
       </c>
       <c r="C21" s="1">
-        <v>1145.720000</v>
+        <v>1145.72</v>
       </c>
       <c r="D21" s="1">
-        <v>-230.811000</v>
+        <v>-230.81100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>56376.445048</v>
+        <v>56376.445048000001</v>
       </c>
       <c r="G21" s="1">
         <v>15.660124</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.890000</v>
+        <v>1163.8900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-196.450000</v>
+        <v>-196.45</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>56386.944858</v>
+        <v>56386.944858000003</v>
       </c>
       <c r="L21" s="1">
-        <v>15.663040</v>
+        <v>15.663040000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1189.940000</v>
+        <v>1189.94</v>
       </c>
       <c r="N21" s="1">
-        <v>-140.493000</v>
+        <v>-140.49299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>56397.513614</v>
+        <v>56397.513614000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.665976</v>
+        <v>15.665976000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.070000</v>
+        <v>1198.07</v>
       </c>
       <c r="S21" s="1">
-        <v>-121.903000</v>
+        <v>-121.90300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>56407.990618</v>
+        <v>56407.990618000003</v>
       </c>
       <c r="V21" s="1">
-        <v>15.668886</v>
+        <v>15.668886000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1206.460000</v>
+        <v>1206.46</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.019000</v>
+        <v>-104.01900000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>56418.540048</v>
+        <v>56418.540048000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.671817</v>
+        <v>15.671817000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.020000</v>
+        <v>1215.02</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.190100</v>
+        <v>-89.190100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>56429.083511</v>
+        <v>56429.083510999997</v>
       </c>
       <c r="AF21" s="1">
         <v>15.674745</v>
       </c>
       <c r="AG21" s="1">
-        <v>1220.360000</v>
+        <v>1220.3599999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.435600</v>
+        <v>-85.435599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>56439.652724</v>
@@ -5469,118 +5885,118 @@
         <v>15.677681</v>
       </c>
       <c r="AL21" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.712500</v>
+        <v>-89.712500000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>56450.454629</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.680682</v>
+        <v>15.680681999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1236.370000</v>
+        <v>1236.3699999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.213000</v>
+        <v>-102.21299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>56461.441020</v>
+        <v>56461.441019999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.683734</v>
+        <v>15.683733999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-122.042000</v>
+        <v>-122.042</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>56472.507733</v>
+        <v>56472.507732999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.686808</v>
+        <v>15.686807999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.847000</v>
+        <v>-139.84700000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>56483.751034</v>
+        <v>56483.751034000001</v>
       </c>
       <c r="BE21" s="1">
         <v>15.689931</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.906000</v>
+        <v>-222.90600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>56495.519115</v>
+        <v>56495.519115000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>15.693200</v>
+        <v>15.693199999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.640000</v>
+        <v>1367.64</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.360000</v>
+        <v>-360.36</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>56506.085886</v>
+        <v>56506.085886000001</v>
       </c>
       <c r="BO21" s="1">
         <v>15.696135</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.271000</v>
+        <v>-583.27099999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>56516.719118</v>
+        <v>56516.719118000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.699089</v>
+        <v>15.699089000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1619.100000</v>
+        <v>1619.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-834.563000</v>
+        <v>-834.56299999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>56527.618208</v>
@@ -5589,452 +6005,452 @@
         <v>15.702116</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.350000</v>
+        <v>1773.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1106.150000</v>
+        <v>-1106.1500000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>56540.732929</v>
+        <v>56540.732928999998</v>
       </c>
       <c r="CD21" s="1">
         <v>15.705759</v>
       </c>
       <c r="CE21" s="1">
-        <v>2196.670000</v>
+        <v>2196.67</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1761.750000</v>
+        <v>-1761.75</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>56366.676837</v>
+        <v>56366.676836999999</v>
       </c>
       <c r="B22" s="1">
-        <v>15.657410</v>
+        <v>15.65741</v>
       </c>
       <c r="C22" s="1">
-        <v>1145.820000</v>
+        <v>1145.82</v>
       </c>
       <c r="D22" s="1">
-        <v>-230.675000</v>
+        <v>-230.67500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>56376.790761</v>
+        <v>56376.790760999997</v>
       </c>
       <c r="G22" s="1">
-        <v>15.660220</v>
+        <v>15.660220000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1164.080000</v>
+        <v>1164.08</v>
       </c>
       <c r="I22" s="1">
-        <v>-196.587000</v>
+        <v>-196.58699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>56387.293545</v>
       </c>
       <c r="L22" s="1">
-        <v>15.663137</v>
+        <v>15.663137000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1189.670000</v>
+        <v>1189.67</v>
       </c>
       <c r="N22" s="1">
-        <v>-140.778000</v>
+        <v>-140.77799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>56397.865277</v>
+        <v>56397.865276999997</v>
       </c>
       <c r="Q22" s="1">
         <v>15.666074</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.040000</v>
+        <v>1198.04</v>
       </c>
       <c r="S22" s="1">
-        <v>-121.899000</v>
+        <v>-121.899</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>56408.345743</v>
+        <v>56408.345742999998</v>
       </c>
       <c r="V22" s="1">
-        <v>15.668985</v>
+        <v>15.668984999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1206.330000</v>
+        <v>1206.33</v>
       </c>
       <c r="X22" s="1">
-        <v>-103.874000</v>
+        <v>-103.874</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>56418.984964</v>
+        <v>56418.984964000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.671940</v>
+        <v>15.671939999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.024700</v>
+        <v>-89.024699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>56429.367682</v>
+        <v>56429.367681999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.674824</v>
+        <v>15.674823999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1220.340000</v>
+        <v>1220.3399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.532000</v>
+        <v>-85.531999999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>56439.931477</v>
+        <v>56439.931476999998</v>
       </c>
       <c r="AK22" s="1">
         <v>15.677759</v>
       </c>
       <c r="AL22" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.724600</v>
+        <v>-89.724599999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>56450.816678</v>
+        <v>56450.816678000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.680782</v>
+        <v>15.680782000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.200000</v>
+        <v>-102.2</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>56461.803559</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.683834</v>
+        <v>15.683833999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="AW22" s="1">
-        <v>-122.031000</v>
+        <v>-122.03100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>56472.866856</v>
+        <v>56472.866856000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.686907</v>
       </c>
       <c r="BA22" s="1">
-        <v>1255.310000</v>
+        <v>1255.31</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.842000</v>
+        <v>-139.84200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>56484.470763</v>
+        <v>56484.470762999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.690131</v>
+        <v>15.690130999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.893000</v>
+        <v>-222.893</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>56495.893099</v>
+        <v>56495.893099000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.693304</v>
+        <v>15.693303999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.710000</v>
+        <v>1367.71</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.347000</v>
+        <v>-360.34699999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>56506.489637</v>
+        <v>56506.489636999999</v>
       </c>
       <c r="BO22" s="1">
         <v>15.696247</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-583.298000</v>
+        <v>-583.298</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>56517.128815</v>
+        <v>56517.128814999996</v>
       </c>
       <c r="BT22" s="1">
         <v>15.699202</v>
       </c>
       <c r="BU22" s="1">
-        <v>1619.090000</v>
+        <v>1619.09</v>
       </c>
       <c r="BV22" s="1">
-        <v>-834.546000</v>
+        <v>-834.54600000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>56528.368160</v>
+        <v>56528.368159999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.702324</v>
+        <v>15.702324000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1773.200000</v>
+        <v>1773.2</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1106.100000</v>
+        <v>-1106.0999999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>56540.961593</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.705823</v>
+        <v>15.705823000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.160000</v>
+        <v>2195.16</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1762.930000</v>
+        <v>-1762.93</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>56367.017094</v>
+        <v>56367.017094000003</v>
       </c>
       <c r="B23" s="1">
         <v>15.657505</v>
       </c>
       <c r="C23" s="1">
-        <v>1145.830000</v>
+        <v>1145.83</v>
       </c>
       <c r="D23" s="1">
-        <v>-230.886000</v>
+        <v>-230.886</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>56377.132503</v>
+        <v>56377.132503000001</v>
       </c>
       <c r="G23" s="1">
-        <v>15.660315</v>
+        <v>15.660315000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.820000</v>
+        <v>1163.82</v>
       </c>
       <c r="I23" s="1">
-        <v>-195.907000</v>
+        <v>-195.90700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>56387.639955</v>
+        <v>56387.639954999999</v>
       </c>
       <c r="L23" s="1">
         <v>15.663233</v>
       </c>
       <c r="M23" s="1">
-        <v>1189.830000</v>
+        <v>1189.83</v>
       </c>
       <c r="N23" s="1">
-        <v>-140.411000</v>
+        <v>-140.411</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>56398.297787</v>
+        <v>56398.297787000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.666194</v>
+        <v>15.666194000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.060000</v>
+        <v>1198.06</v>
       </c>
       <c r="S23" s="1">
-        <v>-121.884000</v>
+        <v>-121.884</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>56408.768830</v>
+        <v>56408.768830000001</v>
       </c>
       <c r="V23" s="1">
-        <v>15.669102</v>
+        <v>15.669102000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1206.340000</v>
+        <v>1206.3399999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-103.926000</v>
+        <v>-103.926</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>56419.253263</v>
+        <v>56419.253262999999</v>
       </c>
       <c r="AA23" s="1">
         <v>15.672015</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.050000</v>
+        <v>1215.05</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.087200</v>
+        <v>-89.087199999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>56429.710915</v>
+        <v>56429.710915000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.674920</v>
+        <v>15.67492</v>
       </c>
       <c r="AG23" s="1">
-        <v>1220.310000</v>
+        <v>1220.31</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.533300</v>
+        <v>-85.533299999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>56440.284633</v>
+        <v>56440.284633000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.677857</v>
+        <v>15.677856999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1228.040000</v>
+        <v>1228.04</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.736600</v>
+        <v>-89.736599999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>56451.174825</v>
+        <v>56451.174825000002</v>
       </c>
       <c r="AP23" s="1">
         <v>15.680882</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1236.350000</v>
+        <v>1236.3499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.198000</v>
+        <v>-102.19799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>56462.535684</v>
+        <v>56462.535684000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>15.684038</v>
+        <v>15.684037999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-122.037000</v>
+        <v>-122.03700000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>56473.586520</v>
+        <v>56473.586519999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.687107</v>
+        <v>15.687106999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.310000</v>
+        <v>1255.31</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.825000</v>
+        <v>-139.82499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>56484.836313</v>
@@ -6043,135 +6459,135 @@
         <v>15.690232</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.902000</v>
+        <v>-222.90199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>56496.266587</v>
+        <v>56496.266586999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.693407</v>
+        <v>15.693407000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.680000</v>
+        <v>1367.68</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.371000</v>
+        <v>-360.37099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>56507.204395</v>
+        <v>56507.204395000001</v>
       </c>
       <c r="BO23" s="1">
         <v>15.696446</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-583.348000</v>
+        <v>-583.34799999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>56517.883726</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.699412</v>
+        <v>15.699412000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1619.150000</v>
+        <v>1619.15</v>
       </c>
       <c r="BV23" s="1">
-        <v>-834.473000</v>
+        <v>-834.47299999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>56528.487695</v>
+        <v>56528.487695000003</v>
       </c>
       <c r="BY23" s="1">
         <v>15.702358</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1773.430000</v>
+        <v>1773.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1106.330000</v>
+        <v>-1106.33</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>56541.499247</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.705972</v>
+        <v>15.705971999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2198.020000</v>
+        <v>2198.02</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1763.130000</v>
+        <v>-1763.13</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>56367.363796</v>
+        <v>56367.363795999998</v>
       </c>
       <c r="B24" s="1">
         <v>15.657601</v>
       </c>
       <c r="C24" s="1">
-        <v>1145.830000</v>
+        <v>1145.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-230.488000</v>
+        <v>-230.488</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>56377.558606</v>
+        <v>56377.558605999999</v>
       </c>
       <c r="G24" s="1">
-        <v>15.660433</v>
+        <v>15.660432999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.560000</v>
+        <v>1163.56</v>
       </c>
       <c r="I24" s="1">
-        <v>-195.952000</v>
+        <v>-195.952</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>56388.068793</v>
+        <v>56388.068792999999</v>
       </c>
       <c r="L24" s="1">
         <v>15.663352</v>
       </c>
       <c r="M24" s="1">
-        <v>1189.880000</v>
+        <v>1189.8800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-140.700000</v>
+        <v>-140.69999999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>56398.569098</v>
@@ -6180,193 +6596,193 @@
         <v>15.666269</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.080000</v>
+        <v>1198.08</v>
       </c>
       <c r="S24" s="1">
-        <v>-121.867000</v>
+        <v>-121.867</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>56409.029229</v>
       </c>
       <c r="V24" s="1">
-        <v>15.669175</v>
+        <v>15.669174999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1206.430000</v>
+        <v>1206.43</v>
       </c>
       <c r="X24" s="1">
-        <v>-103.923000</v>
+        <v>-103.923</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>56419.598480</v>
+        <v>56419.598480000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.672111</v>
+        <v>15.672110999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.080000</v>
+        <v>1215.08</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.161800</v>
+        <v>-89.161799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>56430.059601</v>
+        <v>56430.059601000001</v>
       </c>
       <c r="AF24" s="1">
         <v>15.675017</v>
       </c>
       <c r="AG24" s="1">
-        <v>1220.390000</v>
+        <v>1220.3900000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.535500</v>
+        <v>-85.535499999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>56440.639274</v>
+        <v>56440.639274000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.677955</v>
+        <v>15.677955000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.722000</v>
+        <v>-89.721999999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>56451.894485</v>
+        <v>56451.894484999997</v>
       </c>
       <c r="AP24" s="1">
         <v>15.681082</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1236.360000</v>
+        <v>1236.3599999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.214000</v>
+        <v>-102.214</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>56462.929008</v>
+        <v>56462.929007999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.684147</v>
+        <v>15.684146999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-122.056000</v>
+        <v>-122.056</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>56473.945127</v>
+        <v>56473.945126999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.687207</v>
+        <v>15.687207000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.280000</v>
+        <v>1255.28</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.834000</v>
+        <v>-139.834</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>56485.195880</v>
+        <v>56485.195879999999</v>
       </c>
       <c r="BE24" s="1">
         <v>15.690332</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.891000</v>
+        <v>-222.89099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>56496.955528</v>
+        <v>56496.955527999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.693599</v>
+        <v>15.693599000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.680000</v>
+        <v>1367.68</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.389000</v>
+        <v>-360.38900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>56507.316955</v>
+        <v>56507.316955000002</v>
       </c>
       <c r="BO24" s="1">
         <v>15.696477</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.380000</v>
+        <v>1484.38</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.352000</v>
+        <v>-583.35199999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>56517.992349</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.699442</v>
+        <v>15.699441999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1619.110000</v>
+        <v>1619.11</v>
       </c>
       <c r="BV24" s="1">
-        <v>-834.422000</v>
+        <v>-834.42200000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>56528.910783</v>
+        <v>56528.910782999999</v>
       </c>
       <c r="BY24" s="1">
         <v>15.702475</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.520000</v>
+        <v>1773.52</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1106.120000</v>
+        <v>-1106.1199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>56542.034926</v>
@@ -6375,317 +6791,317 @@
         <v>15.706121</v>
       </c>
       <c r="CE24" s="1">
-        <v>2194.970000</v>
+        <v>2194.9699999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1761.720000</v>
+        <v>-1761.72</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>56367.787877</v>
+        <v>56367.787877000002</v>
       </c>
       <c r="B25" s="1">
         <v>15.657719</v>
       </c>
       <c r="C25" s="1">
-        <v>1145.880000</v>
+        <v>1145.8800000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-230.473000</v>
+        <v>-230.47300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>56377.831398</v>
+        <v>56377.831398000002</v>
       </c>
       <c r="G25" s="1">
-        <v>15.660509</v>
+        <v>15.660508999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.790000</v>
+        <v>1163.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-196.669000</v>
+        <v>-196.66900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>56388.343576</v>
+        <v>56388.343575999999</v>
       </c>
       <c r="L25" s="1">
-        <v>15.663429</v>
+        <v>15.663429000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1189.940000</v>
+        <v>1189.94</v>
       </c>
       <c r="N25" s="1">
-        <v>-140.779000</v>
+        <v>-140.779</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>56398.915306</v>
+        <v>56398.915306000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.666365</v>
+        <v>15.666365000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.120000</v>
+        <v>1198.1199999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-121.879000</v>
+        <v>-121.879</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>56409.373453</v>
       </c>
       <c r="V25" s="1">
-        <v>15.669270</v>
+        <v>15.669269999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1206.220000</v>
+        <v>1206.22</v>
       </c>
       <c r="X25" s="1">
-        <v>-103.841000</v>
+        <v>-103.84099999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>56419.947201</v>
+        <v>56419.947201000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.672208</v>
+        <v>15.672207999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.155000</v>
+        <v>-89.155000000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>56430.754538</v>
+        <v>56430.754538000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.675210</v>
+        <v>15.67521</v>
       </c>
       <c r="AG25" s="1">
-        <v>1220.380000</v>
+        <v>1220.3800000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.642100</v>
+        <v>-85.642099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>56441.331186</v>
+        <v>56441.331186000003</v>
       </c>
       <c r="AK25" s="1">
         <v>15.678148</v>
       </c>
       <c r="AL25" s="1">
-        <v>1228.050000</v>
+        <v>1228.05</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.712600</v>
+        <v>-89.712599999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>56452.256596</v>
+        <v>56452.256595999999</v>
       </c>
       <c r="AP25" s="1">
         <v>15.681182</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1236.360000</v>
+        <v>1236.3599999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.223000</v>
+        <v>-102.223</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>56463.290102</v>
+        <v>56463.290101999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.684247</v>
+        <v>15.684246999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="AW25" s="1">
-        <v>-122.050000</v>
+        <v>-122.05</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>56474.625670</v>
+        <v>56474.625670000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.687396</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.859000</v>
+        <v>-139.85900000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>56485.872423</v>
+        <v>56485.872423000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.690520</v>
+        <v>15.690519999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.460000</v>
+        <v>1296.46</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.851000</v>
+        <v>-222.851</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>56497.425769</v>
+        <v>56497.425769000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.693729</v>
+        <v>15.693728999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.680000</v>
+        <v>1367.68</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.376000</v>
+        <v>-360.37599999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>56507.720202</v>
+        <v>56507.720201999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.696589</v>
+        <v>15.696588999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-583.246000</v>
+        <v>-583.24599999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>56518.421884</v>
+        <v>56518.421884000003</v>
       </c>
       <c r="BT25" s="1">
         <v>15.699562</v>
       </c>
       <c r="BU25" s="1">
-        <v>1619.140000</v>
+        <v>1619.14</v>
       </c>
       <c r="BV25" s="1">
-        <v>-834.447000</v>
+        <v>-834.447</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>56529.329406</v>
+        <v>56529.329405999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.702592</v>
+        <v>15.702591999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1773.310000</v>
+        <v>1773.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1106.050000</v>
+        <v>-1106.05</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>56542.578044</v>
+        <v>56542.578044000002</v>
       </c>
       <c r="CD25" s="1">
         <v>15.706272</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.690000</v>
+        <v>2196.69</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1763.940000</v>
+        <v>-1763.94</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>56368.059188</v>
+        <v>56368.059187999999</v>
       </c>
       <c r="B26" s="1">
-        <v>15.657794</v>
+        <v>15.657794000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1145.940000</v>
+        <v>1145.94</v>
       </c>
       <c r="D26" s="1">
-        <v>-230.375000</v>
+        <v>-230.375</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>56378.176086</v>
+        <v>56378.176085999999</v>
       </c>
       <c r="G26" s="1">
-        <v>15.660604</v>
+        <v>15.660603999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.180000</v>
+        <v>1164.18</v>
       </c>
       <c r="I26" s="1">
-        <v>-195.712000</v>
+        <v>-195.71199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>56388.689288</v>
+        <v>56388.689288000001</v>
       </c>
       <c r="L26" s="1">
         <v>15.663525</v>
       </c>
       <c r="M26" s="1">
-        <v>1189.720000</v>
+        <v>1189.72</v>
       </c>
       <c r="N26" s="1">
-        <v>-140.833000</v>
+        <v>-140.833</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>56399.269946</v>
@@ -6694,210 +7110,211 @@
         <v>15.666464</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-121.966000</v>
+        <v>-121.96599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>56410.061404</v>
       </c>
       <c r="V26" s="1">
-        <v>15.669462</v>
+        <v>15.669461999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1206.350000</v>
+        <v>1206.3499999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-103.906000</v>
+        <v>-103.90600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>56420.646029</v>
+        <v>56420.646029000003</v>
       </c>
       <c r="AA26" s="1">
         <v>15.672402</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.147800</v>
+        <v>-89.147800000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>56431.105665</v>
+        <v>56431.105665000003</v>
       </c>
       <c r="AF26" s="1">
         <v>15.675307</v>
       </c>
       <c r="AG26" s="1">
-        <v>1220.330000</v>
+        <v>1220.33</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.549400</v>
+        <v>-85.549400000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>56441.680868</v>
+        <v>56441.680868000003</v>
       </c>
       <c r="AK26" s="1">
         <v>15.678245</v>
       </c>
       <c r="AL26" s="1">
-        <v>1228.030000</v>
+        <v>1228.03</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.719100</v>
+        <v>-89.719099999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>56452.617326</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.681283</v>
+        <v>15.681283000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1236.380000</v>
+        <v>1236.3800000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.215000</v>
+        <v>-102.215</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>56463.983478</v>
+        <v>56463.983478000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.684440</v>
+        <v>15.68444</v>
       </c>
       <c r="AV26" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-122.028000</v>
+        <v>-122.02800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>56475.019958</v>
+        <v>56475.019957999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.687506</v>
+        <v>15.687506000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1255.320000</v>
+        <v>1255.32</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.830000</v>
+        <v>-139.83000000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>56486.304966</v>
+        <v>56486.304966000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.690640</v>
+        <v>15.69064</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.430000</v>
+        <v>1296.43</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.858000</v>
+        <v>-222.858</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>56497.814104</v>
+        <v>56497.814103999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.693837</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.670000</v>
+        <v>1367.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.348000</v>
+        <v>-360.34800000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>56508.117002</v>
+        <v>56508.117001999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.696699</v>
+        <v>15.696699000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-583.298000</v>
+        <v>-583.298</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>56518.840047</v>
+        <v>56518.840046999998</v>
       </c>
       <c r="BT26" s="1">
         <v>15.699678</v>
       </c>
       <c r="BU26" s="1">
-        <v>1619.190000</v>
+        <v>1619.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-834.384000</v>
+        <v>-834.38400000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>56529.777294</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.702716</v>
+        <v>15.702716000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.130000</v>
+        <v>1773.13</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1106.070000</v>
+        <v>-1106.07</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>56543.114748</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.706421</v>
+        <v>15.706421000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.700000</v>
+        <v>2196.6999999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1761.290000</v>
+        <v>-1761.29</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>